--- a/target/classes/static/lips/1_Unique_eCATT.xlsx
+++ b/target/classes/static/lips/1_Unique_eCATT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i501695/IdeaProjects/report/src/main/resources/static/lips/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i501695/IdeaProjects/report/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BDB225-14C2-774A-9BE9-C0BE0D99D56A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EDEA93-F53F-A645-BD4A-83587EC9E241}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32280" yWindow="860" windowWidth="33600" windowHeight="19260" tabRatio="457" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -98,8 +98,8 @@
   <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{0DD29D21-E873-4B18-83DC-39C4BAD0B0BD}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Initially taken from CCS Content Architect BC Set Classification
 BCS eCATT = BCS eCATT
@@ -157,8 +157,8 @@
     </comment>
     <comment ref="J1" authorId="2" shapeId="0" xr:uid="{5BAA5EDD-11EE-4A8E-B298-545CC5B7CA92}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     OP only = Used in OP only = can be ignored for entry level
 </t>
@@ -166,8 +166,8 @@
     </comment>
     <comment ref="K1" authorId="3" shapeId="0" xr:uid="{9B75B897-49B5-4AF0-8B08-355A64A6ACD6}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Initially taken from eCATT Replacement Initiative
 </t>
@@ -175,8 +175,8 @@
     </comment>
     <comment ref="L1" authorId="4" shapeId="0" xr:uid="{06A615F6-410C-44D3-A619-9B3C1774AB5E}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Taken from System CC9 - Report /SMB/MDASCUST_REPL
 </t>
@@ -184,8 +184,8 @@
     </comment>
     <comment ref="M1" authorId="5" shapeId="0" xr:uid="{CAA18DCB-3AA2-4D0A-8C61-7E62122EBDF8}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Taken from System CC9 - Report /SMB/MDASCUST_REPL:
 Report takes Application Component from eCATT if Application Component for ABAP Replacement Class is not maintained
@@ -194,8 +194,8 @@
     </comment>
     <comment ref="N1" authorId="6" shapeId="0" xr:uid="{88102B30-4573-4C9D-A2F9-D66487170BFD}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Taken from ACRF - based on Application Conmponent of Replacement Class
 </t>
@@ -203,8 +203,8 @@
     </comment>
     <comment ref="O1" authorId="7" shapeId="0" xr:uid="{1D22510E-5A25-41E8-A5AA-C2B9813E22E9}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     eCATT Classification:
 Please find information on previous older evaluation in columns AE - AH.
@@ -213,8 +213,8 @@
     </comment>
     <comment ref="P1" authorId="8" shapeId="0" xr:uid="{335AB1B2-AC3A-474E-A8C2-305B016B7F16}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     eCATT Classification:
 Please find information on previous older evaluation in columns AE - AH.
@@ -223,8 +223,8 @@
     </comment>
     <comment ref="T1" authorId="9" shapeId="0" xr:uid="{3475E63A-958E-4BDC-8366-D339CB7D602C}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Initial = Initial Satus
 In clarification = In clarification
@@ -240,8 +240,8 @@
     </comment>
     <comment ref="U1" authorId="10" shapeId="0" xr:uid="{76941737-8EA8-4F9E-85CB-6CD7076216CF}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+        <t xml:space="preserve">[嵌套批注]
+你的Excel版本可读取此嵌套批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     Initial = Initial Satus
 In clarification = In clarification
@@ -371,7 +371,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Hoenig, Lars:</t>
         </r>
@@ -380,7 +379,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -390,7 +388,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">[05.08.2019]
 </t>
@@ -400,7 +397,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">As per email frm Lu, Leo &lt;leo.lu@sap.com&gt; dtd. 05.08.2019 06:19 criterien in1908 changed from ECATT_SPECIALCASE =&gt; ECATT_MULT_TYPE
 </t>
@@ -467,7 +463,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Hoenig, Lars:</t>
         </r>
@@ -476,7 +471,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -486,7 +480,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">[05.08.2019]
 </t>
@@ -496,7 +489,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">As per email frm Lu, Leo &lt;leo.lu@sap.com&gt; dtd. 05.08.2019 06:19 criterien in1908 changed from ECATT_SPECIALCASE =&gt; ECATT_MULT_TYPE
 </t>
@@ -1684,7 +1676,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Hoenig, Lars:</t>
         </r>
@@ -1693,7 +1685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 as per incident 1970406128:
@@ -6296,14 +6288,14 @@
     <t>eCATT Classification CE 1908
 done by LOB 
 (Status 24th June 2019)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6478,15 +6470,26 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -20241,7 +20244,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54E13CB8-EE17-4B79-A0B6-22A86D997755}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54E13CB8-EE17-4B79-A0B6-22A86D997755}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField dataField="1" showAll="0"/>
@@ -20443,7 +20446,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4953EF-9207-42DF-955B-5DE923058EE9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4953EF-9207-42DF-955B-5DE923058EE9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField dataField="1" showAll="0"/>
@@ -20639,7 +20642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C45DE627-096F-4888-B309-DA79F520DA32}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C45DE627-096F-4888-B309-DA79F520DA32}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField dataField="1" showAll="0"/>
@@ -21551,7 +21554,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
@@ -22039,7 +22042,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
@@ -22201,7 +22204,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37737,7 +37740,7 @@
       <sortCondition ref="B1:B389"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -38160,7 +38163,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
@@ -38237,7 +38240,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -40289,7 +40292,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:C56" xr:uid="{B953ECBC-3A56-49B0-A6D1-57F0892C99F4}"/>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -40297,13 +40300,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B179B2-9749-4B21-8D95-E554F4EDD20F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A310" sqref="A310"/>
+      <selection pane="bottomRight" activeCell="O226" sqref="O226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -40466,7 +40470,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.5" customHeight="1">
+    <row r="2" spans="1:40" ht="16.5" hidden="1" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>432</v>
       </c>
@@ -40540,7 +40544,7 @@
       <c r="AL2" s="36"/>
       <c r="AM2" s="34"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" hidden="1">
       <c r="A3" s="16" t="s">
         <v>437</v>
       </c>
@@ -40611,7 +40615,7 @@
       <c r="AL3" s="36"/>
       <c r="AM3" s="34"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" hidden="1">
       <c r="A4" s="16" t="s">
         <v>443</v>
       </c>
@@ -40682,7 +40686,7 @@
       <c r="AL4" s="36"/>
       <c r="AM4" s="34"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" hidden="1">
       <c r="A5" s="16" t="s">
         <v>242</v>
       </c>
@@ -40758,7 +40762,7 @@
       <c r="AL5" s="36"/>
       <c r="AM5" s="34"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" hidden="1">
       <c r="A6" s="16" t="s">
         <v>245</v>
       </c>
@@ -40824,7 +40828,7 @@
       <c r="AL6" s="36"/>
       <c r="AM6" s="34"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" hidden="1">
       <c r="A7" s="37" t="s">
         <v>615</v>
       </c>
@@ -40877,7 +40881,7 @@
       <c r="AL7" s="36"/>
       <c r="AM7" s="34"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" hidden="1">
       <c r="A8" s="16" t="s">
         <v>226</v>
       </c>
@@ -40950,7 +40954,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" hidden="1">
       <c r="A9" s="16" t="s">
         <v>449</v>
       </c>
@@ -41023,7 +41027,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" hidden="1">
       <c r="A10" s="37" t="s">
         <v>798</v>
       </c>
@@ -41078,7 +41082,7 @@
       <c r="AL10" s="36"/>
       <c r="AM10" s="34"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" hidden="1">
       <c r="A11" s="37" t="s">
         <v>469</v>
       </c>
@@ -41138,7 +41142,7 @@
       <c r="AL11" s="36"/>
       <c r="AM11" s="34"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" hidden="1">
       <c r="A12" s="16" t="s">
         <v>70</v>
       </c>
@@ -42591,7 +42595,7 @@
       <c r="AL34" s="36"/>
       <c r="AM34" s="34"/>
     </row>
-    <row r="35" spans="1:39" ht="15">
+    <row r="35" spans="1:39" ht="15" hidden="1">
       <c r="A35" s="16" t="s">
         <v>308</v>
       </c>
@@ -42903,7 +42907,7 @@
       <c r="AL39" s="36"/>
       <c r="AM39" s="34"/>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" hidden="1">
       <c r="A40" s="16" t="s">
         <v>128</v>
       </c>
@@ -43103,7 +43107,7 @@
       <c r="AL42" s="36"/>
       <c r="AM42" s="34"/>
     </row>
-    <row r="43" spans="1:39" ht="15">
+    <row r="43" spans="1:39" ht="15" hidden="1">
       <c r="A43" s="17" t="s">
         <v>361</v>
       </c>
@@ -43189,7 +43193,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15">
+    <row r="44" spans="1:39" ht="15" hidden="1">
       <c r="A44" s="16" t="s">
         <v>362</v>
       </c>
@@ -43333,7 +43337,7 @@
       <c r="AL45" s="36"/>
       <c r="AM45" s="34"/>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" hidden="1">
       <c r="A46" s="16" t="s">
         <v>162</v>
       </c>
@@ -43426,7 +43430,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15">
+    <row r="47" spans="1:39" ht="15" hidden="1">
       <c r="A47" s="16" t="s">
         <v>275</v>
       </c>
@@ -43522,7 +43526,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15">
+    <row r="48" spans="1:39" ht="15" hidden="1">
       <c r="A48" s="16" t="s">
         <v>272</v>
       </c>
@@ -43847,7 +43851,7 @@
       <c r="AL52" s="36"/>
       <c r="AM52" s="34"/>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" hidden="1">
       <c r="A53" s="16" t="s">
         <v>119</v>
       </c>
@@ -43928,7 +43932,7 @@
       <c r="AL53" s="36"/>
       <c r="AM53" s="34"/>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" hidden="1">
       <c r="A54" s="16" t="s">
         <v>76</v>
       </c>
@@ -44092,7 +44096,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" hidden="1">
       <c r="A56" s="16" t="s">
         <v>198</v>
       </c>
@@ -44175,7 +44179,7 @@
       <c r="AL56" s="36"/>
       <c r="AM56" s="34"/>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" hidden="1">
       <c r="A57" s="16" t="s">
         <v>300</v>
       </c>
@@ -44250,7 +44254,7 @@
       <c r="AL57" s="36"/>
       <c r="AM57" s="34"/>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" hidden="1">
       <c r="A58" s="16" t="s">
         <v>298</v>
       </c>
@@ -44325,7 +44329,7 @@
       <c r="AL58" s="36"/>
       <c r="AM58" s="34"/>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" hidden="1">
       <c r="A59" s="16" t="s">
         <v>136</v>
       </c>
@@ -44420,7 +44424,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" hidden="1">
       <c r="A60" s="16" t="s">
         <v>252</v>
       </c>
@@ -44495,7 +44499,7 @@
       <c r="AL60" s="36"/>
       <c r="AM60" s="34"/>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" hidden="1">
       <c r="A61" s="16" t="s">
         <v>126</v>
       </c>
@@ -44579,7 +44583,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" hidden="1">
       <c r="A62" s="16" t="s">
         <v>339</v>
       </c>
@@ -44658,7 +44662,7 @@
       <c r="AL62" s="36"/>
       <c r="AM62" s="34"/>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" hidden="1">
       <c r="A63" s="16" t="s">
         <v>341</v>
       </c>
@@ -44737,7 +44741,7 @@
       <c r="AL63" s="36"/>
       <c r="AM63" s="34"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" hidden="1">
       <c r="A64" s="16" t="s">
         <v>446</v>
       </c>
@@ -44813,7 +44817,7 @@
       <c r="AL64" s="36"/>
       <c r="AM64" s="34"/>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" hidden="1">
       <c r="A65" s="16" t="s">
         <v>204</v>
       </c>
@@ -44887,7 +44891,7 @@
       <c r="AL65" s="36"/>
       <c r="AM65" s="34"/>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" hidden="1">
       <c r="A66" s="16" t="s">
         <v>336</v>
       </c>
@@ -44966,7 +44970,7 @@
       <c r="AL66" s="36"/>
       <c r="AM66" s="34"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" hidden="1">
       <c r="A67" s="16" t="s">
         <v>342</v>
       </c>
@@ -45043,7 +45047,7 @@
       <c r="AL67" s="36"/>
       <c r="AM67" s="34"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" hidden="1">
       <c r="A68" s="16" t="s">
         <v>346</v>
       </c>
@@ -45120,7 +45124,7 @@
       <c r="AL68" s="36"/>
       <c r="AM68" s="34"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" hidden="1">
       <c r="A69" s="16" t="s">
         <v>343</v>
       </c>
@@ -45197,7 +45201,7 @@
       <c r="AL69" s="36"/>
       <c r="AM69" s="34"/>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" hidden="1">
       <c r="A70" s="16" t="s">
         <v>345</v>
       </c>
@@ -45274,7 +45278,7 @@
       <c r="AL70" s="36"/>
       <c r="AM70" s="34"/>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" hidden="1">
       <c r="A71" s="16" t="s">
         <v>254</v>
       </c>
@@ -45353,7 +45357,7 @@
       <c r="AL71" s="36"/>
       <c r="AM71" s="34"/>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" hidden="1">
       <c r="A72" s="16" t="s">
         <v>256</v>
       </c>
@@ -45432,7 +45436,7 @@
       <c r="AL72" s="36"/>
       <c r="AM72" s="34"/>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" hidden="1">
       <c r="A73" s="16" t="s">
         <v>140</v>
       </c>
@@ -45516,7 +45520,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" hidden="1">
       <c r="A74" s="16" t="s">
         <v>145</v>
       </c>
@@ -45600,7 +45604,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" hidden="1">
       <c r="A75" s="16" t="s">
         <v>110</v>
       </c>
@@ -45684,7 +45688,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" hidden="1">
       <c r="A76" s="16" t="s">
         <v>133</v>
       </c>
@@ -45768,7 +45772,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" hidden="1">
       <c r="A77" s="16" t="s">
         <v>444</v>
       </c>
@@ -45849,7 +45853,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" hidden="1">
       <c r="A78" s="16" t="s">
         <v>349</v>
       </c>
@@ -45926,7 +45930,7 @@
       <c r="AL78" s="36"/>
       <c r="AM78" s="34"/>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" hidden="1">
       <c r="A79" s="16" t="s">
         <v>104</v>
       </c>
@@ -46010,7 +46014,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" hidden="1">
       <c r="A80" s="16" t="s">
         <v>123</v>
       </c>
@@ -46094,7 +46098,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" hidden="1">
       <c r="A81" s="60" t="s">
         <v>286</v>
       </c>
@@ -46384,7 +46388,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15">
+    <row r="85" spans="1:39" ht="15" hidden="1">
       <c r="A85" s="16" t="s">
         <v>273</v>
       </c>
@@ -46616,7 +46620,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15">
+    <row r="88" spans="1:39" ht="15" hidden="1">
       <c r="A88" s="16" t="s">
         <v>293</v>
       </c>
@@ -46709,7 +46713,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" hidden="1">
       <c r="A89" s="16" t="s">
         <v>154</v>
       </c>
@@ -46797,7 +46801,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" hidden="1">
       <c r="A90" s="16" t="s">
         <v>113</v>
       </c>
@@ -46946,7 +46950,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="20.25" customHeight="1">
+    <row r="92" spans="1:39" ht="20.25" hidden="1" customHeight="1">
       <c r="A92" s="16" t="s">
         <v>259</v>
       </c>
@@ -47026,7 +47030,7 @@
       <c r="AL92" s="36"/>
       <c r="AM92" s="34"/>
     </row>
-    <row r="93" spans="1:39" ht="15">
+    <row r="93" spans="1:39" ht="15" hidden="1">
       <c r="A93" s="17" t="s">
         <v>99</v>
       </c>
@@ -47111,7 +47115,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" hidden="1">
       <c r="A94" s="17" t="s">
         <v>528</v>
       </c>
@@ -47180,7 +47184,7 @@
       <c r="AL94" s="36"/>
       <c r="AM94" s="34"/>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" hidden="1">
       <c r="A95" s="16" t="s">
         <v>382</v>
       </c>
@@ -47242,7 +47246,7 @@
       <c r="AL95" s="36"/>
       <c r="AM95" s="34"/>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" hidden="1">
       <c r="A96" s="16" t="s">
         <v>96</v>
       </c>
@@ -47325,7 +47329,7 @@
       <c r="AL96" s="36"/>
       <c r="AM96" s="34"/>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" hidden="1">
       <c r="A97" s="37" t="s">
         <v>1013</v>
       </c>
@@ -47380,7 +47384,7 @@
       <c r="AL97" s="36"/>
       <c r="AM97" s="34"/>
     </row>
-    <row r="98" spans="1:39" ht="15">
+    <row r="98" spans="1:39" ht="15" hidden="1">
       <c r="A98" s="16" t="s">
         <v>527</v>
       </c>
@@ -47445,7 +47449,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" hidden="1">
       <c r="A99" s="60" t="s">
         <v>526</v>
       </c>
@@ -47519,7 +47523,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" hidden="1">
       <c r="A100" s="16" t="s">
         <v>290</v>
       </c>
@@ -47607,7 +47611,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" hidden="1">
       <c r="A101" s="37" t="s">
         <v>525</v>
       </c>
@@ -47670,7 +47674,7 @@
       <c r="AL101" s="36"/>
       <c r="AM101" s="34"/>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" hidden="1">
       <c r="A102" s="37" t="s">
         <v>1027</v>
       </c>
@@ -47725,7 +47729,7 @@
       <c r="AL102" s="36"/>
       <c r="AM102" s="34"/>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" hidden="1">
       <c r="A103" s="37" t="s">
         <v>1030</v>
       </c>
@@ -47780,7 +47784,7 @@
       <c r="AL103" s="36"/>
       <c r="AM103" s="34"/>
     </row>
-    <row r="104" spans="1:39" ht="21" customHeight="1">
+    <row r="104" spans="1:39" ht="21" hidden="1" customHeight="1">
       <c r="A104" s="16" t="s">
         <v>319</v>
       </c>
@@ -47850,7 +47854,7 @@
       <c r="AL104" s="36"/>
       <c r="AM104" s="34"/>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" hidden="1">
       <c r="A105" s="16" t="s">
         <v>150</v>
       </c>
@@ -47925,7 +47929,7 @@
       <c r="AL105" s="36"/>
       <c r="AM105" s="34"/>
     </row>
-    <row r="106" spans="1:39" ht="17.25" customHeight="1">
+    <row r="106" spans="1:39" ht="17.25" hidden="1" customHeight="1">
       <c r="A106" s="16" t="s">
         <v>316</v>
       </c>
@@ -47995,7 +47999,7 @@
       <c r="AL106" s="36"/>
       <c r="AM106" s="34"/>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" hidden="1">
       <c r="A107" s="16" t="s">
         <v>288</v>
       </c>
@@ -48075,7 +48079,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" hidden="1">
       <c r="A108" s="16" t="s">
         <v>102</v>
       </c>
@@ -48158,7 +48162,7 @@
       <c r="AL108" s="36"/>
       <c r="AM108" s="34"/>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" hidden="1">
       <c r="A109" s="16" t="s">
         <v>294</v>
       </c>
@@ -48244,7 +48248,7 @@
       <c r="AL109" s="36"/>
       <c r="AM109" s="34"/>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" hidden="1">
       <c r="A110" s="16" t="s">
         <v>194</v>
       </c>
@@ -48326,7 +48330,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="16">
+    <row r="111" spans="1:39" ht="16" hidden="1">
       <c r="A111" s="16" t="s">
         <v>315</v>
       </c>
@@ -48417,7 +48421,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" hidden="1">
       <c r="A112" s="16" t="s">
         <v>153</v>
       </c>
@@ -48500,7 +48504,7 @@
       <c r="AL112" s="36"/>
       <c r="AM112" s="34"/>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" hidden="1">
       <c r="A113" s="16" t="s">
         <v>317</v>
       </c>
@@ -48576,7 +48580,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" hidden="1">
       <c r="A114" s="37" t="s">
         <v>1069</v>
       </c>
@@ -48631,7 +48635,7 @@
       <c r="AL114" s="36"/>
       <c r="AM114" s="34"/>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" hidden="1">
       <c r="A115" s="37" t="s">
         <v>1072</v>
       </c>
@@ -48686,7 +48690,7 @@
       <c r="AL115" s="36"/>
       <c r="AM115" s="34"/>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" hidden="1">
       <c r="A116" s="16" t="s">
         <v>100</v>
       </c>
@@ -48760,7 +48764,7 @@
       <c r="AL116" s="36"/>
       <c r="AM116" s="34"/>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" hidden="1">
       <c r="A117" s="60" t="s">
         <v>601</v>
       </c>
@@ -48833,7 +48837,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" hidden="1">
       <c r="A118" s="16" t="s">
         <v>291</v>
       </c>
@@ -48921,7 +48925,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" hidden="1">
       <c r="A119" s="16" t="s">
         <v>289</v>
       </c>
@@ -49007,7 +49011,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15">
+    <row r="120" spans="1:39" ht="15" hidden="1">
       <c r="A120" s="16" t="s">
         <v>279</v>
       </c>
@@ -49105,7 +49109,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" hidden="1">
       <c r="A121" s="16" t="s">
         <v>206</v>
       </c>
@@ -49173,7 +49177,7 @@
       <c r="AL121" s="36"/>
       <c r="AM121" s="34"/>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" hidden="1">
       <c r="A122" s="16" t="s">
         <v>85</v>
       </c>
@@ -49256,7 +49260,7 @@
       <c r="AL122" s="36"/>
       <c r="AM122" s="34"/>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" hidden="1">
       <c r="A123" s="16" t="s">
         <v>201</v>
       </c>
@@ -49324,7 +49328,7 @@
       <c r="AL123" s="36"/>
       <c r="AM123" s="34"/>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" hidden="1">
       <c r="A124" s="16" t="s">
         <v>200</v>
       </c>
@@ -49392,7 +49396,7 @@
       <c r="AL124" s="36"/>
       <c r="AM124" s="34"/>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" hidden="1">
       <c r="A125" s="37" t="s">
         <v>1094</v>
       </c>
@@ -49447,7 +49451,7 @@
       <c r="AL125" s="36"/>
       <c r="AM125" s="34"/>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" hidden="1">
       <c r="A126" s="16" t="s">
         <v>131</v>
       </c>
@@ -49530,7 +49534,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" hidden="1">
       <c r="A127" s="16" t="s">
         <v>121</v>
       </c>
@@ -49614,7 +49618,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" hidden="1">
       <c r="A128" s="16" t="s">
         <v>132</v>
       </c>
@@ -49698,7 +49702,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" hidden="1">
       <c r="A129" s="16" t="s">
         <v>139</v>
       </c>
@@ -49782,7 +49786,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" hidden="1">
       <c r="A130" s="37" t="s">
         <v>642</v>
       </c>
@@ -49838,7 +49842,7 @@
       <c r="AL130" s="36"/>
       <c r="AM130" s="34"/>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" hidden="1">
       <c r="A131" s="16" t="s">
         <v>214</v>
       </c>
@@ -49907,7 +49911,7 @@
       <c r="AL131" s="36"/>
       <c r="AM131" s="34"/>
     </row>
-    <row r="132" spans="1:39" ht="15">
+    <row r="132" spans="1:39" ht="15" hidden="1">
       <c r="A132" s="16" t="s">
         <v>152</v>
       </c>
@@ -49993,7 +49997,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15">
+    <row r="133" spans="1:39" ht="15" hidden="1">
       <c r="A133" s="60" t="s">
         <v>262</v>
       </c>
@@ -50086,7 +50090,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" hidden="1">
       <c r="A134" s="17" t="s">
         <v>205</v>
       </c>
@@ -50173,7 +50177,7 @@
       <c r="AL134" s="36"/>
       <c r="AM134" s="34"/>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" hidden="1">
       <c r="A135" s="16" t="s">
         <v>93</v>
       </c>
@@ -50256,7 +50260,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="14">
+    <row r="136" spans="1:39" ht="14" hidden="1">
       <c r="A136" s="60" t="s">
         <v>295</v>
       </c>
@@ -50343,7 +50347,7 @@
       <c r="AL136" s="36"/>
       <c r="AM136" s="34"/>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" hidden="1">
       <c r="A137" s="16" t="s">
         <v>107</v>
       </c>
@@ -50427,7 +50431,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" hidden="1">
       <c r="A138" s="16" t="s">
         <v>143</v>
       </c>
@@ -50508,7 +50512,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" hidden="1">
       <c r="A139" s="16" t="s">
         <v>147</v>
       </c>
@@ -50592,7 +50596,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" hidden="1">
       <c r="A140" s="16" t="s">
         <v>218</v>
       </c>
@@ -50661,7 +50665,7 @@
       <c r="AL140" s="36"/>
       <c r="AM140" s="34"/>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" hidden="1">
       <c r="A141" s="37" t="s">
         <v>641</v>
       </c>
@@ -50718,7 +50722,7 @@
       <c r="AL141" s="36"/>
       <c r="AM141" s="34"/>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" hidden="1">
       <c r="A142" s="16" t="s">
         <v>1124</v>
       </c>
@@ -50792,7 +50796,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" hidden="1">
       <c r="A143" s="16" t="s">
         <v>1126</v>
       </c>
@@ -50866,7 +50870,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" hidden="1">
       <c r="A144" s="16" t="s">
         <v>1127</v>
       </c>
@@ -50940,7 +50944,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" hidden="1">
       <c r="A145" s="16" t="s">
         <v>219</v>
       </c>
@@ -51012,7 +51016,7 @@
       <c r="AL145" s="36"/>
       <c r="AM145" s="34"/>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:39" hidden="1">
       <c r="A146" s="16" t="s">
         <v>167</v>
       </c>
@@ -51091,7 +51095,7 @@
       <c r="AL146" s="36"/>
       <c r="AM146" s="34"/>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" hidden="1">
       <c r="A147" s="16" t="s">
         <v>447</v>
       </c>
@@ -51245,7 +51249,7 @@
       <c r="AL148" s="36"/>
       <c r="AM148" s="34"/>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:39" hidden="1">
       <c r="A149" s="37" t="s">
         <v>1140</v>
       </c>
@@ -51378,7 +51382,7 @@
       <c r="AL150" s="36"/>
       <c r="AM150" s="34"/>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" hidden="1">
       <c r="A151" s="37" t="s">
         <v>639</v>
       </c>
@@ -52012,7 +52016,7 @@
       <c r="AL159" s="36"/>
       <c r="AM159" s="34"/>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" hidden="1">
       <c r="A160" s="37" t="s">
         <v>638</v>
       </c>
@@ -52069,7 +52073,7 @@
       <c r="AL160" s="36"/>
       <c r="AM160" s="34"/>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:39" hidden="1">
       <c r="A161" s="16" t="s">
         <v>217</v>
       </c>
@@ -52139,7 +52143,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:39" hidden="1">
       <c r="A162" s="16" t="s">
         <v>221</v>
       </c>
@@ -52208,7 +52212,7 @@
       <c r="AL162" s="36"/>
       <c r="AM162" s="34"/>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:39" hidden="1">
       <c r="A163" s="16" t="s">
         <v>213</v>
       </c>
@@ -52279,7 +52283,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:39" hidden="1">
       <c r="A164" s="16" t="s">
         <v>209</v>
       </c>
@@ -52344,7 +52348,7 @@
       <c r="AL164" s="36"/>
       <c r="AM164" s="34"/>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:39" hidden="1">
       <c r="A165" s="37" t="s">
         <v>624</v>
       </c>
@@ -52401,7 +52405,7 @@
       <c r="AL165" s="36"/>
       <c r="AM165" s="34"/>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:39" hidden="1">
       <c r="A166" s="37" t="s">
         <v>623</v>
       </c>
@@ -52458,7 +52462,7 @@
       <c r="AL166" s="36"/>
       <c r="AM166" s="34"/>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:39" hidden="1">
       <c r="A167" s="37" t="s">
         <v>1175</v>
       </c>
@@ -52513,7 +52517,7 @@
       <c r="AL167" s="36"/>
       <c r="AM167" s="34"/>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:39" hidden="1">
       <c r="A168" s="37" t="s">
         <v>620</v>
       </c>
@@ -52570,7 +52574,7 @@
       <c r="AL168" s="36"/>
       <c r="AM168" s="34"/>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:39" hidden="1">
       <c r="A169" s="37" t="s">
         <v>616</v>
       </c>
@@ -52627,7 +52631,7 @@
       <c r="AL169" s="36"/>
       <c r="AM169" s="34"/>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:39" hidden="1">
       <c r="A170" s="37" t="s">
         <v>614</v>
       </c>
@@ -52684,7 +52688,7 @@
       <c r="AL170" s="36"/>
       <c r="AM170" s="34"/>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:39" hidden="1">
       <c r="A171" s="37" t="s">
         <v>613</v>
       </c>
@@ -52741,7 +52745,7 @@
       <c r="AL171" s="36"/>
       <c r="AM171" s="34"/>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:39" hidden="1">
       <c r="A172" s="37" t="s">
         <v>612</v>
       </c>
@@ -52798,7 +52802,7 @@
       <c r="AL172" s="36"/>
       <c r="AM172" s="34"/>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:39" hidden="1">
       <c r="A173" s="37" t="s">
         <v>1186</v>
       </c>
@@ -52853,7 +52857,7 @@
       <c r="AL173" s="36"/>
       <c r="AM173" s="34"/>
     </row>
-    <row r="174" spans="1:39" ht="36" customHeight="1">
+    <row r="174" spans="1:39" ht="36" hidden="1" customHeight="1">
       <c r="A174" s="16" t="s">
         <v>1190</v>
       </c>
@@ -52911,7 +52915,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:39" hidden="1">
       <c r="A175" s="19" t="s">
         <v>736</v>
       </c>
@@ -52977,7 +52981,7 @@
       <c r="AL175" s="36"/>
       <c r="AM175" s="34"/>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:39" hidden="1">
       <c r="A176" s="37" t="s">
         <v>517</v>
       </c>
@@ -53034,7 +53038,7 @@
       <c r="AL176" s="36"/>
       <c r="AM176" s="34"/>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" hidden="1">
       <c r="A177" s="16" t="s">
         <v>215</v>
       </c>
@@ -53111,7 +53115,7 @@
       <c r="AL177" s="36"/>
       <c r="AM177" s="34"/>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" hidden="1">
       <c r="A178" s="16" t="s">
         <v>376</v>
       </c>
@@ -53188,7 +53192,7 @@
       <c r="AL178" s="36"/>
       <c r="AM178" s="34"/>
     </row>
-    <row r="179" spans="1:39" ht="42">
+    <row r="179" spans="1:39" ht="42" hidden="1">
       <c r="A179" s="37" t="s">
         <v>1198</v>
       </c>
@@ -53244,7 +53248,7 @@
       <c r="AL179" s="36"/>
       <c r="AM179" s="34"/>
     </row>
-    <row r="180" spans="1:39" ht="24" customHeight="1">
+    <row r="180" spans="1:39" ht="24" hidden="1" customHeight="1">
       <c r="A180" s="37" t="s">
         <v>626</v>
       </c>
@@ -53302,7 +53306,7 @@
       <c r="AL180" s="36"/>
       <c r="AM180" s="34"/>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:39" hidden="1">
       <c r="A181" s="37" t="s">
         <v>610</v>
       </c>
@@ -53358,7 +53362,7 @@
       <c r="AL181" s="36"/>
       <c r="AM181" s="34"/>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:39" hidden="1">
       <c r="A182" s="37" t="s">
         <v>1207</v>
       </c>
@@ -53413,7 +53417,7 @@
       <c r="AL182" s="36"/>
       <c r="AM182" s="34"/>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" hidden="1">
       <c r="A183" s="37" t="s">
         <v>1210</v>
       </c>
@@ -53468,7 +53472,7 @@
       <c r="AL183" s="36"/>
       <c r="AM183" s="34"/>
     </row>
-    <row r="184" spans="1:39" ht="28">
+    <row r="184" spans="1:39" ht="28" hidden="1">
       <c r="A184" s="16" t="s">
         <v>375</v>
       </c>
@@ -53536,7 +53540,7 @@
       <c r="AL184" s="36"/>
       <c r="AM184" s="34"/>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" hidden="1">
       <c r="A185" s="16" t="s">
         <v>211</v>
       </c>
@@ -53764,7 +53768,7 @@
       <c r="AL187" s="36"/>
       <c r="AM187" s="34"/>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" hidden="1">
       <c r="A188" s="37" t="s">
         <v>618</v>
       </c>
@@ -53901,7 +53905,7 @@
       <c r="AL189" s="36"/>
       <c r="AM189" s="34"/>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:39" hidden="1">
       <c r="A190" s="37" t="s">
         <v>617</v>
       </c>
@@ -53958,7 +53962,7 @@
       <c r="AL190" s="36"/>
       <c r="AM190" s="34"/>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:39" hidden="1">
       <c r="A191" s="37" t="s">
         <v>1229</v>
       </c>
@@ -54013,7 +54017,7 @@
       <c r="AL191" s="36"/>
       <c r="AM191" s="34"/>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" hidden="1">
       <c r="A192" s="37" t="s">
         <v>1231</v>
       </c>
@@ -54068,7 +54072,7 @@
       <c r="AL192" s="36"/>
       <c r="AM192" s="34"/>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:39" hidden="1">
       <c r="A193" s="37" t="s">
         <v>1233</v>
       </c>
@@ -54123,7 +54127,7 @@
       <c r="AL193" s="36"/>
       <c r="AM193" s="34"/>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="1:39" hidden="1">
       <c r="A194" s="59" t="s">
         <v>579</v>
       </c>
@@ -54267,7 +54271,7 @@
       <c r="AL195" s="36"/>
       <c r="AM195" s="34"/>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="1:39" hidden="1">
       <c r="A196" s="59" t="s">
         <v>576</v>
       </c>
@@ -54335,7 +54339,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="1:39" hidden="1">
       <c r="A197" s="59" t="s">
         <v>553</v>
       </c>
@@ -54403,7 +54407,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="1:39" hidden="1">
       <c r="A198" s="59" t="s">
         <v>550</v>
       </c>
@@ -54471,7 +54475,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="199" spans="1:39">
+    <row r="199" spans="1:39" hidden="1">
       <c r="A199" s="59" t="s">
         <v>548</v>
       </c>
@@ -54611,7 +54615,7 @@
       <c r="AL200" s="36"/>
       <c r="AM200" s="34"/>
     </row>
-    <row r="201" spans="1:39">
+    <row r="201" spans="1:39" hidden="1">
       <c r="A201" s="16" t="s">
         <v>646</v>
       </c>
@@ -54677,7 +54681,7 @@
       <c r="AL201" s="36"/>
       <c r="AM201" s="34"/>
     </row>
-    <row r="202" spans="1:39">
+    <row r="202" spans="1:39" hidden="1">
       <c r="A202" s="16" t="s">
         <v>285</v>
       </c>
@@ -54760,7 +54764,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="203" spans="1:39">
+    <row r="203" spans="1:39" hidden="1">
       <c r="A203" s="59" t="s">
         <v>547</v>
       </c>
@@ -54825,7 +54829,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="204" spans="1:39">
+    <row r="204" spans="1:39" hidden="1">
       <c r="A204" s="59" t="s">
         <v>546</v>
       </c>
@@ -54890,7 +54894,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="205" spans="1:39">
+    <row r="205" spans="1:39" hidden="1">
       <c r="A205" s="59" t="s">
         <v>545</v>
       </c>
@@ -54955,7 +54959,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="206" spans="1:39">
+    <row r="206" spans="1:39" hidden="1">
       <c r="A206" s="16" t="s">
         <v>385</v>
       </c>
@@ -55038,7 +55042,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="207" spans="1:39">
+    <row r="207" spans="1:39" hidden="1">
       <c r="A207" s="59" t="s">
         <v>544</v>
       </c>
@@ -55103,7 +55107,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="208" spans="1:39">
+    <row r="208" spans="1:39" hidden="1">
       <c r="A208" s="59" t="s">
         <v>585</v>
       </c>
@@ -55168,7 +55172,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="1:39" hidden="1">
       <c r="A209" s="16" t="s">
         <v>392</v>
       </c>
@@ -55251,7 +55255,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="210" spans="1:39">
+    <row r="210" spans="1:39" hidden="1">
       <c r="A210" s="16" t="s">
         <v>394</v>
       </c>
@@ -55334,7 +55338,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="211" spans="1:39">
+    <row r="211" spans="1:39" hidden="1">
       <c r="A211" s="59" t="s">
         <v>583</v>
       </c>
@@ -55460,7 +55464,7 @@
       <c r="AL212" s="36"/>
       <c r="AM212" s="34"/>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="1:39" hidden="1">
       <c r="A213" s="59" t="s">
         <v>582</v>
       </c>
@@ -55525,7 +55529,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="1:39" hidden="1">
       <c r="A214" s="59" t="s">
         <v>575</v>
       </c>
@@ -55593,7 +55597,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="1:39" hidden="1">
       <c r="A215" s="59" t="s">
         <v>572</v>
       </c>
@@ -55661,7 +55665,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="1:39" hidden="1">
       <c r="A216" s="59" t="s">
         <v>571</v>
       </c>
@@ -55726,7 +55730,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="1:39" hidden="1">
       <c r="A217" s="16" t="s">
         <v>180</v>
       </c>
@@ -55817,7 +55821,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="1:39" hidden="1">
       <c r="A218" s="16" t="s">
         <v>280</v>
       </c>
@@ -55908,7 +55912,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="1:39" hidden="1">
       <c r="A219" s="16" t="s">
         <v>190</v>
       </c>
@@ -55999,7 +56003,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="1:39" hidden="1">
       <c r="A220" s="17" t="s">
         <v>192</v>
       </c>
@@ -56082,7 +56086,7 @@
       <c r="AL220" s="36"/>
       <c r="AM220" s="34"/>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="1:39" hidden="1">
       <c r="A221" s="16" t="s">
         <v>363</v>
       </c>
@@ -56171,7 +56175,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="1:39" hidden="1">
       <c r="A222" s="16" t="s">
         <v>283</v>
       </c>
@@ -56262,7 +56266,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="1:39" hidden="1">
       <c r="A223" s="16" t="s">
         <v>303</v>
       </c>
@@ -56669,7 +56673,7 @@
       <c r="AL227" s="36"/>
       <c r="AM227" s="34"/>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="1:39" hidden="1">
       <c r="A228" s="16" t="s">
         <v>277</v>
       </c>
@@ -56760,7 +56764,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="1:39" hidden="1">
       <c r="A229" s="16" t="s">
         <v>276</v>
       </c>
@@ -56851,7 +56855,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="1:39" hidden="1">
       <c r="A230" s="16" t="s">
         <v>352</v>
       </c>
@@ -56939,7 +56943,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="1:39" hidden="1">
       <c r="A231" s="16" t="s">
         <v>354</v>
       </c>
@@ -57028,7 +57032,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="1:39" hidden="1">
       <c r="A232" s="16" t="s">
         <v>101</v>
       </c>
@@ -57108,7 +57112,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="1:39" hidden="1">
       <c r="A233" s="16" t="s">
         <v>114</v>
       </c>
@@ -57187,7 +57191,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="234" spans="1:39" ht="28">
+    <row r="234" spans="1:39" ht="28" hidden="1">
       <c r="A234" s="16" t="s">
         <v>115</v>
       </c>
@@ -57270,7 +57274,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="1:39" hidden="1">
       <c r="A235" s="16" t="s">
         <v>231</v>
       </c>
@@ -57361,7 +57365,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="1:39" hidden="1">
       <c r="A236" s="16" t="s">
         <v>327</v>
       </c>
@@ -57440,7 +57444,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="1:39" hidden="1">
       <c r="A237" s="16" t="s">
         <v>179</v>
       </c>
@@ -57531,7 +57535,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="1:39" hidden="1">
       <c r="A238" s="16" t="s">
         <v>445</v>
       </c>
@@ -57608,7 +57612,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="1:39" hidden="1">
       <c r="A239" s="60" t="s">
         <v>281</v>
       </c>
@@ -57679,7 +57683,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="1:39" hidden="1">
       <c r="A240" s="16" t="s">
         <v>356</v>
       </c>
@@ -57758,7 +57762,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="1:39" hidden="1">
       <c r="A241" s="16" t="s">
         <v>103</v>
       </c>
@@ -57835,7 +57839,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="1:39" hidden="1">
       <c r="A242" s="16" t="s">
         <v>171</v>
       </c>
@@ -57926,7 +57930,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="1:39" hidden="1">
       <c r="A243" s="16" t="s">
         <v>233</v>
       </c>
@@ -58014,7 +58018,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="1:39" hidden="1">
       <c r="A244" s="16" t="s">
         <v>174</v>
       </c>
@@ -58102,7 +58106,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="1:39" hidden="1">
       <c r="A245" s="16" t="s">
         <v>355</v>
       </c>
@@ -58191,7 +58195,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="1:39" hidden="1">
       <c r="A246" s="16" t="s">
         <v>323</v>
       </c>
@@ -58282,7 +58286,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="247" spans="1:39" ht="15">
+    <row r="247" spans="1:39" ht="15" hidden="1">
       <c r="A247" s="18" t="s">
         <v>587</v>
       </c>
@@ -58363,7 +58367,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="248" spans="1:39" ht="15">
+    <row r="248" spans="1:39" ht="15" hidden="1">
       <c r="A248" s="18" t="s">
         <v>567</v>
       </c>
@@ -58444,7 +58448,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="249" spans="1:39" ht="15">
+    <row r="249" spans="1:39" ht="15" hidden="1">
       <c r="A249" s="18" t="s">
         <v>558</v>
       </c>
@@ -58525,7 +58529,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="250" spans="1:39" ht="24.75" customHeight="1">
+    <row r="250" spans="1:39" ht="24.75" hidden="1" customHeight="1">
       <c r="A250" s="63" t="s">
         <v>699</v>
       </c>
@@ -58581,7 +58585,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="1:39" hidden="1">
       <c r="A251" s="16" t="s">
         <v>417</v>
       </c>
@@ -58653,7 +58657,7 @@
       <c r="AL251" s="36"/>
       <c r="AM251" s="34"/>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="1:39" hidden="1">
       <c r="A252" s="16" t="s">
         <v>431</v>
       </c>
@@ -58727,7 +58731,7 @@
       <c r="AL252" s="36"/>
       <c r="AM252" s="34"/>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="1:39" hidden="1">
       <c r="A253" s="37" t="s">
         <v>1371</v>
       </c>
@@ -58784,7 +58788,7 @@
       <c r="AL253" s="36"/>
       <c r="AM253" s="34"/>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="1:39" hidden="1">
       <c r="A254" s="16" t="s">
         <v>423</v>
       </c>
@@ -58856,7 +58860,7 @@
       <c r="AL254" s="36"/>
       <c r="AM254" s="34"/>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="1:39" hidden="1">
       <c r="A255" s="16" t="s">
         <v>430</v>
       </c>
@@ -58925,7 +58929,7 @@
       <c r="AL255" s="36"/>
       <c r="AM255" s="34"/>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="1:39" hidden="1">
       <c r="A256" s="16" t="s">
         <v>425</v>
       </c>
@@ -58997,7 +59001,7 @@
       <c r="AL256" s="36"/>
       <c r="AM256" s="34"/>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="1:39" hidden="1">
       <c r="A257" s="16" t="s">
         <v>426</v>
       </c>
@@ -59068,7 +59072,7 @@
       <c r="AL257" s="36"/>
       <c r="AM257" s="34"/>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="1:39" hidden="1">
       <c r="A258" s="16" t="s">
         <v>185</v>
       </c>
@@ -59139,7 +59143,7 @@
       <c r="AL258" s="36"/>
       <c r="AM258" s="34"/>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="1:39" hidden="1">
       <c r="A259" s="16" t="s">
         <v>187</v>
       </c>
@@ -59210,7 +59214,7 @@
       <c r="AL259" s="36"/>
       <c r="AM259" s="34"/>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="1:39" hidden="1">
       <c r="A260" s="16" t="s">
         <v>420</v>
       </c>
@@ -59284,7 +59288,7 @@
       <c r="AL260" s="36"/>
       <c r="AM260" s="34"/>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="1:39" hidden="1">
       <c r="A261" s="16" t="s">
         <v>427</v>
       </c>
@@ -59358,7 +59362,7 @@
       <c r="AL261" s="36"/>
       <c r="AM261" s="34"/>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="1:39" hidden="1">
       <c r="A262" s="16" t="s">
         <v>239</v>
       </c>
@@ -59427,7 +59431,7 @@
       <c r="AL262" s="36"/>
       <c r="AM262" s="34"/>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="1:39" hidden="1">
       <c r="A263" s="16" t="s">
         <v>304</v>
       </c>
@@ -59496,7 +59500,7 @@
       <c r="AL263" s="36"/>
       <c r="AM263" s="34"/>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="1:39" hidden="1">
       <c r="A264" s="16" t="s">
         <v>307</v>
       </c>
@@ -59565,7 +59569,7 @@
       <c r="AL264" s="36"/>
       <c r="AM264" s="34"/>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="1:39" hidden="1">
       <c r="A265" s="16" t="s">
         <v>313</v>
       </c>
@@ -59634,7 +59638,7 @@
       <c r="AL265" s="36"/>
       <c r="AM265" s="34"/>
     </row>
-    <row r="266" spans="1:39" ht="12.75" customHeight="1">
+    <row r="266" spans="1:39" ht="12.75" hidden="1" customHeight="1">
       <c r="A266" s="16" t="s">
         <v>244</v>
       </c>
@@ -59717,7 +59721,7 @@
       <c r="AL266" s="36"/>
       <c r="AM266" s="34"/>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="1:39" hidden="1">
       <c r="A267" s="16" t="s">
         <v>310</v>
       </c>
@@ -59786,7 +59790,7 @@
       <c r="AL267" s="36"/>
       <c r="AM267" s="34"/>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="1:39" hidden="1">
       <c r="A268" s="16" t="s">
         <v>182</v>
       </c>
@@ -59863,7 +59867,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="1:39" hidden="1">
       <c r="A269" s="16" t="s">
         <v>247</v>
       </c>
@@ -59949,7 +59953,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="1:39" hidden="1">
       <c r="A270" s="16" t="s">
         <v>250</v>
       </c>
@@ -60035,7 +60039,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="1:39" hidden="1">
       <c r="A271" s="16" t="s">
         <v>451</v>
       </c>
@@ -60114,7 +60118,7 @@
       <c r="AL271" s="36"/>
       <c r="AM271" s="34"/>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="1:39" hidden="1">
       <c r="A272" s="16" t="s">
         <v>435</v>
       </c>
@@ -60193,7 +60197,7 @@
       <c r="AL272" s="36"/>
       <c r="AM272" s="34"/>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="1:39" hidden="1">
       <c r="A273" s="16" t="s">
         <v>387</v>
       </c>
@@ -60270,7 +60274,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="1:39" hidden="1">
       <c r="A274" s="16" t="s">
         <v>388</v>
       </c>
@@ -60347,7 +60351,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="275" spans="1:39" ht="33" customHeight="1">
+    <row r="275" spans="1:39" ht="33" hidden="1" customHeight="1">
       <c r="A275" s="37" t="s">
         <v>463</v>
       </c>
@@ -60407,7 +60411,7 @@
       <c r="AL275" s="36"/>
       <c r="AM275" s="34"/>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" hidden="1">
       <c r="A276" s="37" t="s">
         <v>465</v>
       </c>
@@ -60470,7 +60474,7 @@
       <c r="AL276" s="36"/>
       <c r="AM276" s="34"/>
     </row>
-    <row r="277" spans="1:39" ht="51" customHeight="1">
+    <row r="277" spans="1:39" ht="51" hidden="1" customHeight="1">
       <c r="A277" s="16" t="s">
         <v>87</v>
       </c>
@@ -60548,7 +60552,7 @@
       <c r="AL277" s="36"/>
       <c r="AM277" s="34"/>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" hidden="1">
       <c r="A278" s="18" t="s">
         <v>532</v>
       </c>
@@ -60616,7 +60620,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" hidden="1">
       <c r="A279" s="18" t="s">
         <v>1430</v>
       </c>
@@ -60699,7 +60703,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" hidden="1">
       <c r="A280" s="16" t="s">
         <v>188</v>
       </c>
@@ -60776,7 +60780,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="1:39" hidden="1">
       <c r="A281" s="18" t="s">
         <v>522</v>
       </c>
@@ -60844,7 +60848,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="282" spans="1:39" ht="42">
+    <row r="282" spans="1:39" ht="42" hidden="1">
       <c r="A282" s="19" t="s">
         <v>621</v>
       </c>
@@ -60910,7 +60914,7 @@
       <c r="AL282" s="36"/>
       <c r="AM282" s="34"/>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" hidden="1">
       <c r="A283" s="60" t="s">
         <v>1438</v>
       </c>
@@ -60990,7 +60994,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" hidden="1">
       <c r="A284" s="16" t="s">
         <v>600</v>
       </c>
@@ -61062,7 +61066,7 @@
       <c r="AL284" s="36"/>
       <c r="AM284" s="34"/>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="1:39" hidden="1">
       <c r="A285" s="16" t="s">
         <v>391</v>
       </c>
@@ -61139,7 +61143,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="286" spans="1:39" ht="14.25" customHeight="1">
+    <row r="286" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A286" s="16" t="s">
         <v>330</v>
       </c>
@@ -61207,7 +61211,7 @@
       <c r="AL286" s="36"/>
       <c r="AM286" s="34"/>
     </row>
-    <row r="287" spans="1:39" ht="14.25" customHeight="1">
+    <row r="287" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A287" s="16" t="s">
         <v>347</v>
       </c>
@@ -61273,7 +61277,7 @@
       <c r="AL287" s="36"/>
       <c r="AM287" s="34"/>
     </row>
-    <row r="288" spans="1:39" ht="14.25" customHeight="1">
+    <row r="288" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A288" s="16" t="s">
         <v>320</v>
       </c>
@@ -61339,7 +61343,7 @@
       <c r="AL288" s="36"/>
       <c r="AM288" s="34"/>
     </row>
-    <row r="289" spans="1:39" ht="14.25" customHeight="1">
+    <row r="289" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A289" s="16" t="s">
         <v>236</v>
       </c>
@@ -61407,7 +61411,7 @@
       <c r="AL289" s="36"/>
       <c r="AM289" s="34"/>
     </row>
-    <row r="290" spans="1:39" ht="14.25" customHeight="1">
+    <row r="290" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A290" s="16" t="s">
         <v>333</v>
       </c>
@@ -61475,7 +61479,7 @@
       <c r="AL290" s="36"/>
       <c r="AM290" s="34"/>
     </row>
-    <row r="291" spans="1:39" ht="14.25" customHeight="1">
+    <row r="291" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A291" s="16" t="s">
         <v>202</v>
       </c>
@@ -61543,7 +61547,7 @@
       <c r="AL291" s="36"/>
       <c r="AM291" s="34"/>
     </row>
-    <row r="292" spans="1:39" ht="14.25" customHeight="1">
+    <row r="292" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A292" s="16" t="s">
         <v>131</v>
       </c>
@@ -61619,7 +61623,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="293" spans="1:39" ht="14.25" customHeight="1">
+    <row r="293" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A293" s="16" t="s">
         <v>593</v>
       </c>
@@ -61692,7 +61696,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="294" spans="1:39" ht="14.25" customHeight="1">
+    <row r="294" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A294" s="16" t="s">
         <v>592</v>
       </c>
@@ -61751,7 +61755,7 @@
       <c r="AL294" s="36"/>
       <c r="AM294" s="34"/>
     </row>
-    <row r="295" spans="1:39" ht="14.25" customHeight="1">
+    <row r="295" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A295" s="16" t="s">
         <v>591</v>
       </c>
@@ -61810,7 +61814,7 @@
       <c r="AL295" s="36"/>
       <c r="AM295" s="34"/>
     </row>
-    <row r="296" spans="1:39" ht="14.25" customHeight="1">
+    <row r="296" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A296" s="16" t="s">
         <v>1450</v>
       </c>
@@ -61881,7 +61885,7 @@
       <c r="AL296" s="36"/>
       <c r="AM296" s="34"/>
     </row>
-    <row r="297" spans="1:39" ht="14.25" customHeight="1">
+    <row r="297" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A297" s="18" t="s">
         <v>569</v>
       </c>
@@ -61949,7 +61953,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="298" spans="1:39" ht="14.25" customHeight="1">
+    <row r="298" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A298" s="60" t="s">
         <v>568</v>
       </c>
@@ -62024,7 +62028,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="299" spans="1:39" ht="14.25" customHeight="1">
+    <row r="299" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A299" s="16" t="s">
         <v>212</v>
       </c>
@@ -62093,7 +62097,7 @@
       <c r="AL299" s="36"/>
       <c r="AM299" s="34"/>
     </row>
-    <row r="300" spans="1:39" ht="14.25" customHeight="1">
+    <row r="300" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A300" s="18" t="s">
         <v>604</v>
       </c>
@@ -62161,7 +62165,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="301" spans="1:39" ht="14.25" customHeight="1">
+    <row r="301" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A301" s="18" t="s">
         <v>602</v>
       </c>
@@ -62229,7 +62233,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="302" spans="1:39" ht="14.25" customHeight="1">
+    <row r="302" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A302" s="18" t="s">
         <v>561</v>
       </c>
@@ -62297,7 +62301,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="303" spans="1:39" ht="14.25" customHeight="1">
+    <row r="303" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A303" s="18" t="s">
         <v>560</v>
       </c>
@@ -62365,7 +62369,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="304" spans="1:39" ht="14.25" customHeight="1">
+    <row r="304" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A304" s="18" t="s">
         <v>559</v>
       </c>
@@ -62433,7 +62437,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="305" spans="1:39" ht="14.25" customHeight="1">
+    <row r="305" spans="1:39" ht="14.25" hidden="1" customHeight="1">
       <c r="A305" s="37" t="s">
         <v>513</v>
       </c>
@@ -62490,7 +62494,7 @@
       <c r="AL305" s="36"/>
       <c r="AM305" s="34"/>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="1:39" hidden="1">
       <c r="A306" s="18" t="s">
         <v>637</v>
       </c>
@@ -62554,7 +62558,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="1:39" hidden="1">
       <c r="A307" s="16" t="s">
         <v>557</v>
       </c>
@@ -62616,7 +62620,7 @@
       <c r="AL307" s="36"/>
       <c r="AM307" s="34"/>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="1:39" hidden="1">
       <c r="A308" s="16" t="s">
         <v>1468</v>
       </c>
@@ -62680,7 +62684,7 @@
       <c r="AL308" s="36"/>
       <c r="AM308" s="34"/>
     </row>
-    <row r="309" spans="1:39" ht="16.5" customHeight="1">
+    <row r="309" spans="1:39" ht="16.5" hidden="1" customHeight="1">
       <c r="A309" s="16" t="s">
         <v>1471</v>
       </c>
@@ -62746,7 +62750,14 @@
       <c r="P312"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <autoFilter ref="A1:AN309" xr:uid="{A478A31D-BC5F-644B-890B-32200EDD438A}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="Produce"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:U1" xr:uid="{6434B6A8-B0CF-4853-999B-46666E2A7FEB}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O91 O55 P333 O82:O84 O86:O87 P2:P31 P50:P308" xr:uid="{701D3497-E0F4-4230-94AA-A1E5224989C9}">
@@ -62953,18 +62964,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62987,18 +62998,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9E5D8B-921D-4F47-AE89-05D7DB3830B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4CAF9C-21C0-4D62-9900-ECC8FD7BC7E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9E5D8B-921D-4F47-AE89-05D7DB3830B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>